--- a/data/orig_tables.xlsx
+++ b/data/orig_tables.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\score_horvath\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55A71B6-0219-4141-B5F2-3944E12AC8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tbl1" sheetId="1" r:id="rId1"/>
     <sheet name="Tbl2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tbl3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>18–29</t>
   </si>
@@ -100,13 +102,43 @@
   </si>
   <si>
     <t>Car-ownership</t>
+  </si>
+  <si>
+    <t>Household  standard  of  living  over  past  5  years</t>
+  </si>
+  <si>
+    <t>Fallen</t>
+  </si>
+  <si>
+    <t>Risen</t>
+  </si>
+  <si>
+    <t>Household  standard  of  living  over  next  5  years</t>
+  </si>
+  <si>
+    <t>Will  fall</t>
+  </si>
+  <si>
+    <t>Will  rise</t>
+  </si>
+  <si>
+    <t>How  would  you  evaluate  the  actual  experience  of  the  market  economy  so  far?</t>
+  </si>
+  <si>
+    <t>Positively</t>
+  </si>
+  <si>
+    <t>Negatively</t>
+  </si>
+  <si>
+    <t>No  way  of  improving  household standard  of  living  in  the  future</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +183,25 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="63"/>
+      <name val="Garamond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="63"/>
+      <name val="Segoe UI Semilight"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -186,11 +237,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF231F20"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -228,15 +288,39 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -246,29 +330,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,43 +627,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="22"/>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24">
         <v>2007</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -618,7 +696,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -647,7 +725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -676,7 +754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -705,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -718,7 +796,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -747,7 +825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -776,7 +854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -805,7 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -818,7 +896,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -847,7 +925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -876,7 +954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="23" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -905,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="23" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -934,7 +1012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="23" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -963,7 +1041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -992,7 +1070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1021,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1050,7 +1128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1091,39 +1169,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13"/>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26">
         <v>2007</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1135,126 +1213,126 @@
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>22</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="16">
         <v>86</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="15">
         <v>5</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="15">
         <v>6</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="15">
         <v>21</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="17">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="15">
         <v>12</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>6</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="17">
         <v>0.4</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="15">
         <v>8</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="15">
         <v>7</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="15">
         <v>8</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="17">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="15">
         <v>43</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="15">
         <v>47</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>43</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="16">
         <v>24</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="15">
         <v>58</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="15">
         <v>61</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="15">
         <v>53</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="17">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="18">
         <v>3800</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <v>6897</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="18">
         <v>5542</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="19">
         <v>5019</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="18">
         <v>2107</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="19">
         <v>3667</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="18">
         <v>3945</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="19">
         <v>4045</v>
       </c>
     </row>
@@ -1265,4 +1343,295 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C989DEBC-A7B4-4339-A20C-626C7E781DC7}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="30">
+        <v>57</v>
+      </c>
+      <c r="C2" s="30">
+        <v>66</v>
+      </c>
+      <c r="D2" s="30">
+        <v>75</v>
+      </c>
+      <c r="E2" s="30">
+        <v>80</v>
+      </c>
+      <c r="F2" s="30">
+        <v>19</v>
+      </c>
+      <c r="G2" s="30">
+        <v>24</v>
+      </c>
+      <c r="H2" s="30">
+        <v>34</v>
+      </c>
+      <c r="I2" s="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="30">
+        <v>19</v>
+      </c>
+      <c r="C3" s="30">
+        <v>15</v>
+      </c>
+      <c r="D3" s="30">
+        <v>9</v>
+      </c>
+      <c r="E3" s="30">
+        <v>5</v>
+      </c>
+      <c r="F3" s="30">
+        <v>49</v>
+      </c>
+      <c r="G3" s="30">
+        <v>42</v>
+      </c>
+      <c r="H3" s="30">
+        <v>31</v>
+      </c>
+      <c r="I3" s="30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="30">
+        <v>19</v>
+      </c>
+      <c r="C5" s="30">
+        <v>26</v>
+      </c>
+      <c r="D5" s="30">
+        <v>34</v>
+      </c>
+      <c r="E5" s="30">
+        <v>34</v>
+      </c>
+      <c r="F5" s="30">
+        <v>7</v>
+      </c>
+      <c r="G5" s="30">
+        <v>12</v>
+      </c>
+      <c r="H5" s="30">
+        <v>19</v>
+      </c>
+      <c r="I5" s="30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="30">
+        <v>37</v>
+      </c>
+      <c r="C6" s="30">
+        <v>30</v>
+      </c>
+      <c r="D6" s="30">
+        <v>23</v>
+      </c>
+      <c r="E6" s="30">
+        <v>17</v>
+      </c>
+      <c r="F6" s="30">
+        <v>53</v>
+      </c>
+      <c r="G6" s="30">
+        <v>43</v>
+      </c>
+      <c r="H6" s="30">
+        <v>31</v>
+      </c>
+      <c r="I6" s="30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="30">
+        <v>10</v>
+      </c>
+      <c r="C7" s="30">
+        <v>15</v>
+      </c>
+      <c r="D7" s="30">
+        <v>35</v>
+      </c>
+      <c r="E7" s="30">
+        <v>74</v>
+      </c>
+      <c r="F7" s="30">
+        <v>6</v>
+      </c>
+      <c r="G7" s="30">
+        <v>10</v>
+      </c>
+      <c r="H7" s="30">
+        <v>31</v>
+      </c>
+      <c r="I7" s="30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="30">
+        <v>24</v>
+      </c>
+      <c r="C9" s="30">
+        <v>20</v>
+      </c>
+      <c r="D9" s="30">
+        <v>17</v>
+      </c>
+      <c r="E9" s="30">
+        <v>17</v>
+      </c>
+      <c r="F9" s="30">
+        <v>42</v>
+      </c>
+      <c r="G9" s="30">
+        <v>35</v>
+      </c>
+      <c r="H9" s="30">
+        <v>29</v>
+      </c>
+      <c r="I9" s="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="30">
+        <v>45</v>
+      </c>
+      <c r="C10" s="30">
+        <v>53</v>
+      </c>
+      <c r="D10" s="30">
+        <v>56</v>
+      </c>
+      <c r="E10" s="30">
+        <v>52</v>
+      </c>
+      <c r="F10" s="30">
+        <v>31</v>
+      </c>
+      <c r="G10" s="30">
+        <v>36</v>
+      </c>
+      <c r="H10" s="30">
+        <v>42</v>
+      </c>
+      <c r="I10" s="30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="32">
+        <v>3800</v>
+      </c>
+      <c r="C11" s="32">
+        <v>6897</v>
+      </c>
+      <c r="D11" s="32">
+        <v>5542</v>
+      </c>
+      <c r="E11" s="32">
+        <v>5019</v>
+      </c>
+      <c r="F11" s="32">
+        <v>2107</v>
+      </c>
+      <c r="G11" s="32">
+        <v>3667</v>
+      </c>
+      <c r="H11" s="32">
+        <v>3945</v>
+      </c>
+      <c r="I11" s="32">
+        <v>4045</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>